--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_20_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_20_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56591.26856728151</v>
+        <v>11261662.44488901</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56591.26856728151</v>
+        <v>11261662.44488901</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2112.48357198982</v>
+        <v>332851.9629114445</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2112.48357198982</v>
+        <v>332851.9629114445</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266249298.030775</v>
+        <v>52276165.46651407</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11009.96137314916</v>
+        <v>1228585.695895255</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20811.12088379482</v>
+        <v>2267571.754169644</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30612.28039444048</v>
+        <v>3306557.812444036</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40441.72273336896</v>
+        <v>4345543.870718428</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50271.16507229744</v>
+        <v>5384529.928992819</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60100.60741122592</v>
+        <v>6423515.987267209</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>69930.0497501544</v>
+        <v>7462502.045541596</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>79759.49208908288</v>
+        <v>8501488.103815984</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>89644.60008719185</v>
+        <v>9533109.103635918</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99474.04242612029</v>
+        <v>10572095.1619103</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>109303.4847650487</v>
+        <v>11611081.2201847</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>119132.9271039772</v>
+        <v>12650067.2784591</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>128962.3694429056</v>
+        <v>13689053.33673349</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>139110.2806893169</v>
+        <v>14681145.48165526</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>149316.2495936239</v>
+        <v>15664549.36397596</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>388</v>
@@ -27055,7 +27055,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
